--- a/2_Formulas_and_Functions/1_Formulas_Intro/2_Spreadsheet_Formula_Elements.xlsx
+++ b/2_Formulas_and_Functions/1_Formulas_Intro/2_Spreadsheet_Formula_Elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\1_Formulas_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BFCCA7-6AB4-4E08-9A5B-6FC1495D61E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3D3CEC-81AD-4D2A-BA06-564114DCD8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -383,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F33A07-E11D-427D-9D2B-B87F603A4B6B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2_Formulas_and_Functions/1_Formulas_Intro/2_Spreadsheet_Formula_Elements.xlsx
+++ b/2_Formulas_and_Functions/1_Formulas_Intro/2_Spreadsheet_Formula_Elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\1_Formulas_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3D3CEC-81AD-4D2A-BA06-564114DCD8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75969DD1-4F0C-4397-BAF6-0771527447ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
